--- a/public/assets/template_import_candidate.xlsx
+++ b/public/assets/template_import_candidate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>jepara</t>
   </si>
@@ -62,19 +62,49 @@
     <t>Level</t>
   </si>
   <si>
-    <t>rararara</t>
-  </si>
-  <si>
-    <t>riririririri</t>
-  </si>
-  <si>
-    <t>rururururu</t>
-  </si>
-  <si>
-    <t>rerererere</t>
-  </si>
-  <si>
-    <t>rororororo</t>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Senior Staff</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>HRD</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>papapapa</t>
+  </si>
+  <si>
+    <t>pipipipipipi</t>
+  </si>
+  <si>
+    <t>pupupupupu</t>
+  </si>
+  <si>
+    <t>pepepepepe</t>
+  </si>
+  <si>
+    <t>popopopopo</t>
+  </si>
+  <si>
+    <t>Senior Manager</t>
   </si>
 </sst>
 </file>
@@ -427,14 +457,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
@@ -469,22 +499,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>36982</v>
+        <v>37352</v>
       </c>
       <c r="G2" s="2">
-        <v>45767</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -492,22 +522,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>36983</v>
+        <v>37353</v>
       </c>
       <c r="G3" s="2">
-        <v>45768</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -515,22 +545,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>36985</v>
+        <v>37354</v>
       </c>
       <c r="G4" s="2">
-        <v>45769</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,22 +568,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>36985</v>
+        <v>37355</v>
       </c>
       <c r="G5" s="2">
-        <v>45770</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,25 +591,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>36986</v>
+        <v>37356</v>
       </c>
       <c r="G6" s="2">
-        <v>45771</v>
+        <v>45734</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>$D$2:$D$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
